--- a/medicine/Psychotrope/San_Miguel_(bière)/San_Miguel_(bière).xlsx
+++ b/medicine/Psychotrope/San_Miguel_(bière)/San_Miguel_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>San_Miguel_(bi%C3%A8re)</t>
+          <t>San_Miguel_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>San Miguel est une marque de bière produite et distribuée de façon indépendante :
-aux Philippines par la San Miguel Brewery, Inc.[1] appartenant au groupe industriel San Miguel Corporation (qui occupe une place prépondérante sur le marché philippin, notamment dans l'agro-alimentaire et l'emballage) ;
+aux Philippines par la San Miguel Brewery, Inc. appartenant au groupe industriel San Miguel Corporation (qui occupe une place prépondérante sur le marché philippin, notamment dans l'agro-alimentaire et l'emballage) ;
 en Espagne par la société Mahou-San Miguel</t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>San_Miguel_(bi%C3%A8re)</t>
+          <t>San_Miguel_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Asie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'implantation de la brasserie San Miguel remonte à 1890[réf. nécessaire]. Elle a été fondée à Manille par un noble espagnol[réf. nécessaire], Enrique Barretto y de Ycaza, et tient son nom de la brasserie que celui-ci dirigeait déjà[Quand ?] à Barcelone. C'est le début de l'empire industriel que deviendra[Quand ?] la San Miguel Corporation.
 La bière San Miguel Pale Pilsen est la marque leader[réf. nécessaire] sur le marché philippin et à Hong Kong. Une large gamme d'autres bières vendues sous la marque San Miguel sont produites[réf. nécessaire]. La brasserie possède de nombreuses filiales en Asie et produit de la bière sous d'autres marques en licence en Indonésie, au Népal, en Chine etc[réf. nécessaire].
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>San_Miguel_(bi%C3%A8re)</t>
+          <t>San_Miguel_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Espagne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir Mahou-San Miguel
 </t>
